--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Liph-Lpar4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Liph-Lpar4.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.026943</v>
+        <v>0.01139766666666667</v>
       </c>
       <c r="H2">
-        <v>0.080829</v>
+        <v>0.034193</v>
       </c>
       <c r="I2">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="J2">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.406915666666665</v>
+        <v>9.162874</v>
       </c>
       <c r="N2">
-        <v>28.220747</v>
+        <v>27.488622</v>
       </c>
       <c r="O2">
-        <v>0.4271164452066484</v>
+        <v>0.3895809024642617</v>
       </c>
       <c r="P2">
-        <v>0.4271164452066483</v>
+        <v>0.3895809024642617</v>
       </c>
       <c r="Q2">
-        <v>0.2534505288069999</v>
+        <v>0.1044353835606667</v>
       </c>
       <c r="R2">
-        <v>2.281054759263</v>
+        <v>0.939918452046</v>
       </c>
       <c r="S2">
-        <v>0.09866025899945753</v>
+        <v>0.05770437603081031</v>
       </c>
       <c r="T2">
-        <v>0.09866025899945753</v>
+        <v>0.05770437603081031</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.026943</v>
+        <v>0.01139766666666667</v>
       </c>
       <c r="H3">
-        <v>0.080829</v>
+        <v>0.034193</v>
       </c>
       <c r="I3">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="J3">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.050406666666666</v>
+        <v>8.050406666666667</v>
       </c>
       <c r="N3">
         <v>24.15122</v>
       </c>
       <c r="O3">
-        <v>0.3655248117210969</v>
+        <v>0.3422817660053286</v>
       </c>
       <c r="P3">
-        <v>0.3655248117210969</v>
+        <v>0.3422817660053286</v>
       </c>
       <c r="Q3">
-        <v>0.21690210682</v>
+        <v>0.09175585171777779</v>
       </c>
       <c r="R3">
-        <v>1.95211896138</v>
+        <v>0.8258026654600001</v>
       </c>
       <c r="S3">
-        <v>0.08443311654198518</v>
+        <v>0.05069847009729432</v>
       </c>
       <c r="T3">
-        <v>0.0844331165419852</v>
+        <v>0.05069847009729432</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.026943</v>
+        <v>0.01139766666666667</v>
       </c>
       <c r="H4">
-        <v>0.080829</v>
+        <v>0.034193</v>
       </c>
       <c r="I4">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="J4">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.566919</v>
+        <v>6.306542666666666</v>
       </c>
       <c r="N4">
-        <v>13.700757</v>
+        <v>18.919628</v>
       </c>
       <c r="O4">
-        <v>0.2073587430722548</v>
+        <v>0.2681373315304097</v>
       </c>
       <c r="P4">
-        <v>0.2073587430722548</v>
+        <v>0.2681373315304097</v>
       </c>
       <c r="Q4">
-        <v>0.123046498617</v>
+        <v>0.07187987113377778</v>
       </c>
       <c r="R4">
-        <v>1.107418487553</v>
+        <v>0.646918840204</v>
       </c>
       <c r="S4">
-        <v>0.04789810255939118</v>
+        <v>0.03971626254946675</v>
       </c>
       <c r="T4">
-        <v>0.04789810255939118</v>
+        <v>0.03971626254946675</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.08345433333333334</v>
+        <v>0.015206</v>
       </c>
       <c r="H5">
-        <v>0.250363</v>
+        <v>0.045618</v>
       </c>
       <c r="I5">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="J5">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.406915666666665</v>
+        <v>9.162874</v>
       </c>
       <c r="N5">
-        <v>28.220747</v>
+        <v>27.488622</v>
       </c>
       <c r="O5">
-        <v>0.4271164452066484</v>
+        <v>0.3895809024642617</v>
       </c>
       <c r="P5">
-        <v>0.4271164452066483</v>
+        <v>0.3895809024642617</v>
       </c>
       <c r="Q5">
-        <v>0.7850478756845555</v>
+        <v>0.139330662044</v>
       </c>
       <c r="R5">
-        <v>7.065430881160999</v>
+        <v>1.253975958396</v>
       </c>
       <c r="S5">
-        <v>0.3055942597815288</v>
+        <v>0.07698529598963252</v>
       </c>
       <c r="T5">
-        <v>0.3055942597815287</v>
+        <v>0.07698529598963252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.08345433333333334</v>
+        <v>0.015206</v>
       </c>
       <c r="H6">
-        <v>0.250363</v>
+        <v>0.045618</v>
       </c>
       <c r="I6">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="J6">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.050406666666666</v>
+        <v>8.050406666666667</v>
       </c>
       <c r="N6">
         <v>24.15122</v>
       </c>
       <c r="O6">
-        <v>0.3655248117210969</v>
+        <v>0.3422817660053286</v>
       </c>
       <c r="P6">
-        <v>0.3655248117210969</v>
+        <v>0.3422817660053286</v>
       </c>
       <c r="Q6">
-        <v>0.6718413214288889</v>
+        <v>0.1224144837733333</v>
       </c>
       <c r="R6">
-        <v>6.046571892859999</v>
+        <v>1.10173035396</v>
       </c>
       <c r="S6">
-        <v>0.2615265357334748</v>
+        <v>0.06763848766994332</v>
       </c>
       <c r="T6">
-        <v>0.2615265357334748</v>
+        <v>0.06763848766994333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08345433333333334</v>
+        <v>0.015206</v>
       </c>
       <c r="H7">
-        <v>0.250363</v>
+        <v>0.045618</v>
       </c>
       <c r="I7">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="J7">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.566919</v>
+        <v>6.306542666666666</v>
       </c>
       <c r="N7">
-        <v>13.700757</v>
+        <v>18.919628</v>
       </c>
       <c r="O7">
-        <v>0.2073587430722548</v>
+        <v>0.2681373315304097</v>
       </c>
       <c r="P7">
-        <v>0.2073587430722548</v>
+        <v>0.2681373315304097</v>
       </c>
       <c r="Q7">
-        <v>0.3811291805323333</v>
+        <v>0.09589728778933332</v>
       </c>
       <c r="R7">
-        <v>3.430162624791</v>
+        <v>0.8630755901039999</v>
       </c>
       <c r="S7">
-        <v>0.1483615119706647</v>
+        <v>0.05298676527305512</v>
       </c>
       <c r="T7">
-        <v>0.1483615119706647</v>
+        <v>0.05298676527305513</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.006243333333333333</v>
+        <v>0.05034566666666667</v>
       </c>
       <c r="H8">
-        <v>0.01873</v>
+        <v>0.151037</v>
       </c>
       <c r="I8">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="J8">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.406915666666665</v>
+        <v>9.162874</v>
       </c>
       <c r="N8">
-        <v>28.220747</v>
+        <v>27.488622</v>
       </c>
       <c r="O8">
-        <v>0.4271164452066484</v>
+        <v>0.3895809024642617</v>
       </c>
       <c r="P8">
-        <v>0.4271164452066483</v>
+        <v>0.3895809024642617</v>
       </c>
       <c r="Q8">
-        <v>0.05873051014555555</v>
+        <v>0.4613110001126667</v>
       </c>
       <c r="R8">
-        <v>0.52857459131</v>
+        <v>4.151799001014</v>
       </c>
       <c r="S8">
-        <v>0.02286192642566207</v>
+        <v>0.2548912304438188</v>
       </c>
       <c r="T8">
-        <v>0.02286192642566207</v>
+        <v>0.2548912304438188</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.006243333333333333</v>
+        <v>0.05034566666666667</v>
       </c>
       <c r="H9">
-        <v>0.01873</v>
+        <v>0.151037</v>
       </c>
       <c r="I9">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="J9">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.050406666666666</v>
+        <v>8.050406666666667</v>
       </c>
       <c r="N9">
         <v>24.15122</v>
       </c>
       <c r="O9">
-        <v>0.3655248117210969</v>
+        <v>0.3422817660053286</v>
       </c>
       <c r="P9">
-        <v>0.3655248117210969</v>
+        <v>0.3422817660053286</v>
       </c>
       <c r="Q9">
-        <v>0.05026137228888888</v>
+        <v>0.4053030905711112</v>
       </c>
       <c r="R9">
-        <v>0.4523523506</v>
+        <v>3.647727815140001</v>
       </c>
       <c r="S9">
-        <v>0.01956515944563687</v>
+        <v>0.2239448082380909</v>
       </c>
       <c r="T9">
-        <v>0.01956515944563687</v>
+        <v>0.2239448082380909</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.006243333333333333</v>
+        <v>0.05034566666666667</v>
       </c>
       <c r="H10">
-        <v>0.01873</v>
+        <v>0.151037</v>
       </c>
       <c r="I10">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="J10">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.566919</v>
+        <v>6.306542666666666</v>
       </c>
       <c r="N10">
-        <v>13.700757</v>
+        <v>18.919628</v>
       </c>
       <c r="O10">
-        <v>0.2073587430722548</v>
+        <v>0.2681373315304097</v>
       </c>
       <c r="P10">
-        <v>0.2073587430722548</v>
+        <v>0.2681373315304097</v>
       </c>
       <c r="Q10">
-        <v>0.02851279762333333</v>
+        <v>0.3175070949151111</v>
       </c>
       <c r="R10">
-        <v>0.25661517861</v>
+        <v>2.857563854236</v>
       </c>
       <c r="S10">
-        <v>0.01109912854219892</v>
+        <v>0.1754343037078878</v>
       </c>
       <c r="T10">
-        <v>0.01109912854219892</v>
+        <v>0.1754343037078878</v>
       </c>
     </row>
   </sheetData>
